--- a/raw_data/Depth interpolation spreadsheet_2010_2011.xlsx
+++ b/raw_data/Depth interpolation spreadsheet_2010_2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cawynn\cloudstor\Shared\SAZ\2010-2011\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EE71D3-5353-40DF-A086-D1F7B58CBB7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F192F2-3DB4-4B35-AE35-9E84DDEDB5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6BC998AD-A9B9-45BC-9966-928BF1ECE2D5}"/>
   </bookViews>
@@ -33,14 +33,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>TDR 2050</t>
   </si>
   <si>
+    <t>Mean depth</t>
+  </si>
+  <si>
     <t>nominal depth</t>
   </si>
   <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>AquaDopp</t>
+  </si>
+  <si>
     <t>chain bridle, mild steel</t>
   </si>
   <si>
@@ -53,6 +62,9 @@
     <t>chain 13mm</t>
   </si>
   <si>
+    <t>current meter</t>
+  </si>
+  <si>
     <t>wire 7mm as tether</t>
   </si>
   <si>
@@ -62,25 +74,10 @@
     <t>DR 1050 on 3900m trap</t>
   </si>
   <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>slope</t>
-  </si>
-  <si>
-    <t>intercept</t>
-  </si>
-  <si>
-    <t>using slope/intercept</t>
-  </si>
-  <si>
-    <t>using offset</t>
-  </si>
-  <si>
-    <t>current meter, 1100 m aquadopp</t>
-  </si>
-  <si>
-    <t>Mode depth</t>
+    <t>1100m</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
@@ -107,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,12 +114,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -149,9 +140,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,415 +454,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389CDC63-5446-4271-B4E6-2B190A03DF6B}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>980.74</v>
+        <v>982.42</v>
       </c>
       <c r="B2" s="4">
         <v>1000</v>
       </c>
-      <c r="E2" s="10">
-        <f>B2*B$30+B$31</f>
-        <v>978.60986727286991</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3">
-        <f>C3+B2</f>
-        <v>1001</v>
-      </c>
-      <c r="C3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4">
-        <f t="shared" ref="B4:B28" si="0">C4+B3</f>
-        <v>1051</v>
-      </c>
-      <c r="C4">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1054</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>1080.2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>1104</v>
-      </c>
-      <c r="C6">
+      <c r="H8" s="6">
+        <f>A2+SUM(B3:B7)</f>
+        <v>1086.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>500</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1104.3</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <f>A2+SUM(B3:B16)</f>
+        <v>1951.02</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>1078.3</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>1105.3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <f>A2+SUM(C3:C7)</f>
-        <v>1085.04</v>
-      </c>
-      <c r="E8" s="10">
-        <f>B8*B$30+B$31</f>
-        <v>1080.5121957923509</v>
-      </c>
-      <c r="F8" s="4" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>300</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>500</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>500</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>500</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>3725.9</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="8">
+        <f>A8+SUM(B8:B28)</f>
+        <v>3814.5</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>1105.5999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>1405.6</v>
-      </c>
-      <c r="C10">
-        <v>300</v>
-      </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>1408.6</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>1908.6</v>
-      </c>
-      <c r="C12">
-        <v>500</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>1911.6</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>1961.6</v>
-      </c>
-      <c r="C14">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>1965.6</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>1968.6</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
-        <f>A2+SUM(C3:C16)</f>
-        <v>1949.3400000000001</v>
-      </c>
-      <c r="E16" s="10">
-        <f>B16*B$30+B$31</f>
-        <v>1915.9564523058175</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>1969.6</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>2269.6</v>
-      </c>
-      <c r="C18">
-        <v>300</v>
-      </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>2272.6</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>2772.6</v>
-      </c>
-      <c r="C20">
-        <v>500</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>2775.6</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>3275.6</v>
-      </c>
-      <c r="C22">
-        <v>500</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>3278.6</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>3778.6</v>
-      </c>
-      <c r="C24">
-        <v>500</v>
-      </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>3781.6</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>3831.6</v>
-      </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>3835.6</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
-        <v>3725.7</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>3838.6</v>
-      </c>
-      <c r="C28" s="4">
-        <v>3</v>
-      </c>
-      <c r="D28" s="8">
-        <f>A8+SUM(C8:C28)</f>
-        <v>3812.6000000000004</v>
-      </c>
-      <c r="E28" s="10">
-        <f>B28*B$30+B$31</f>
-        <v>3725.6179369347792</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1">
-        <f>SLOPE(A2:A28,B2:B28)</f>
-        <v>0.96773341424008641</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1">
-        <f>INTERCEPT(A2:A28,B2:B28)</f>
-        <v>10.876453032783502</v>
-      </c>
+      <c r="H28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
